--- a/plans/계획.xlsx
+++ b/plans/계획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Waffle\Django\seminar-2022-django-assignment2\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E6CD8B-BE30-4994-A3D8-C1E32CC42851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6C703-5FE7-43D1-9BB7-E829C4546D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21180" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{EF289460-E97A-45AE-A30D-02FC414191B8}"/>
+    <workbookView xWindow="-20730" yWindow="3825" windowWidth="21600" windowHeight="11580" xr2:uid="{EF289460-E97A-45AE-A30D-02FC414191B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>muted_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>published_at</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +275,18 @@
   </si>
   <si>
     <t>PostTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user to post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user to post/tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user to post/comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF4830E-0FC5-42AF-BBB7-CB8B958C08DC}">
-  <dimension ref="A2:F59"/>
+  <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +806,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
@@ -806,270 +814,256 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
@@ -1077,10 +1071,13 @@
       <c r="D57" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -1088,10 +1085,33 @@
       <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
